--- a/Data/Motif stuff/ManagementFiles.xlsx
+++ b/Data/Motif stuff/ManagementFiles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>MOTIF</t>
   </si>
@@ -83,22 +83,68 @@
     <t>PadjSigModDiffMirs.txt</t>
   </si>
   <si>
-    <t>NO COMPARASIONS MADE</t>
-  </si>
-  <si>
-    <t>*try going SigDiffDown compared to SIgDownEXCLUDINGDiffMirs</t>
-  </si>
-  <si>
     <t>PadjSigModDownCOMPSigModDiff.txt</t>
+  </si>
+  <si>
+    <t>SigDiffDownEnrich.txt</t>
+  </si>
+  <si>
+    <t>SigModDownmotifCOMPalldown.txt</t>
+  </si>
+  <si>
+    <t>No enrichment.</t>
+  </si>
+  <si>
+    <t>pvalAllDownEnrich.txt</t>
+  </si>
+  <si>
+    <t>AllDownMotifCOMPSigDiffDown.txt</t>
+  </si>
+  <si>
+    <t>AllDownMotifCOMPDownnotdiff.txt</t>
+  </si>
+  <si>
+    <t>pvalDownNotSigDiffEnriched.txt</t>
+  </si>
+  <si>
+    <t>No enrichment</t>
+  </si>
+  <si>
+    <t>DownNotSigDiffCOMPAllDown.txt</t>
+  </si>
+  <si>
+    <t>Diff Down non-sig</t>
+  </si>
+  <si>
+    <t>Diff Down non sig</t>
+  </si>
+  <si>
+    <t>pvalDiffDownMirsEnrich.txt</t>
+  </si>
+  <si>
+    <t>pvalDiffDownMirCOMPSigDiffMirs.txt</t>
+  </si>
+  <si>
+    <t>DiffDownMirsCOMPAllDown.txt</t>
+  </si>
+  <si>
+    <t>SigDiffDownMotifCOMPDiffDownall.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -173,65 +219,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +581,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +598,7 @@
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -555,7 +620,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="s">
@@ -564,311 +629,340 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="J3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="L3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="A4:A10"/>
     <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C10:H15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Data/Motif stuff/ManagementFiles.xlsx
+++ b/Data/Motif stuff/ManagementFiles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>MOTIF</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>SigDiffDownMotifCOMPDiffDownall.txt</t>
+  </si>
+  <si>
+    <t>Now collecting files for site mapped and the mirs that it maps too</t>
   </si>
 </sst>
 </file>
@@ -232,26 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -260,9 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -297,6 +282,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +587,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,364 +611,367 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="7"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="7"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="C1:N1"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
